--- a/service-system/target/classes/static/交安标线厚度新.xlsx
+++ b/service-system/target/classes/static/交安标线厚度新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE96CF0-BBF7-4C78-B8D1-221F502C41D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6F2B9-9E8A-4ABF-9535-FF3EE0B8C15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,11 +367,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
-    <numFmt numFmtId="182" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -657,22 +657,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,10 +684,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,18 +708,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,21 +721,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -753,9 +732,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -765,13 +741,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1162,167 +1162,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
       <c r="Y1" s="18"/>
       <c r="Z1" s="19"/>
       <c r="AA1" s="18"/>
     </row>
     <row r="2" spans="1:27" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="20"/>
     </row>
     <row r="3" spans="1:27" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
       <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="1:27" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
       <c r="AA4" s="20"/>
     </row>
     <row r="5" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
       <c r="AA5" s="21"/>
     </row>
     <row r="6" spans="1:27" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="36" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
       <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2137,7 +2137,7 @@
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
-      <c r="B34" s="12"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
-      <c r="B36" s="12"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
-      <c r="B37" s="12"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -2287,6 +2287,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:S2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:S5"/>
     <mergeCell ref="A6:D6"/>
@@ -2299,14 +2304,9 @@
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:S2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="E1:Q32 B33:S37 E38:Q1048576">
+  <conditionalFormatting sqref="E1:Q32 C33:S37 E38:Q1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>2.3</formula>
     </cfRule>
@@ -2352,21 +2352,21 @@
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
       <c r="I1" s="47"/>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="25">
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="23">
         <f>COUNT(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
@@ -2385,14 +2385,14 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
-      <c r="O2" s="25" t="e">
+      <c r="O2" s="23" t="e">
         <f>COUNTIF(#REF!,"√")+COUNTIF(#REF!,"√")+COUNTIF(#REF!,"√")+COUNTIF(#REF!,"√")+COUNTIF(#REF!,"√")</f>
         <v>#REF!</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="48"/>
@@ -2411,14 +2411,14 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
-      <c r="O3" s="25" t="e">
+      <c r="O3" s="23" t="e">
         <f>COUNTIF(#REF!,"×")+COUNTIF(#REF!,"×")+COUNTIF(#REF!,"×")+COUNTIF(#REF!,"×")+COUNTIF(#REF!,"×")</f>
         <v>#REF!</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="26"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
